--- a/data/case1/9/V2_1.xlsx
+++ b/data/case1/9/V2_1.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999271821483</v>
+        <v>0.99999999440806064</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99532840245390575</v>
+        <v>0.99465453603624021</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.97754980403691594</v>
+        <v>0.97351049367626885</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.97028446120534451</v>
+        <v>0.96420467410530153</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.96351157956608757</v>
+        <v>0.95532684232830645</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.9490834146995637</v>
+        <v>0.93627242267728672</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.95037330006878529</v>
+        <v>0.93516880254849744</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.94289457940632904</v>
+        <v>0.92937748102826845</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.93114752966600389</v>
+        <v>0.9257427499046349</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.92031812101958521</v>
+        <v>0.92303316097318078</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.9187218575047662</v>
+        <v>0.92223595444528184</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.91594177935974275</v>
+        <v>0.92097507308957938</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.90465381518624755</v>
+        <v>0.91598214917179299</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.90048628294932109</v>
+        <v>0.91427526534386727</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.89789470906746494</v>
+        <v>0.91422721504638005</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.89538814766146746</v>
+        <v>0.91172075774321915</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.89168015672868184</v>
+        <v>0.90801286395284841</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.89057124473518623</v>
+        <v>0.90690395059458984</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99323644475710415</v>
+        <v>0.99249922090809406</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.97657531278946708</v>
+        <v>0.9752676968165922</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.97284704145673917</v>
+        <v>0.9713885111600693</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.97158252979060711</v>
+        <v>0.97012400096177032</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.97051453036215229</v>
+        <v>0.96599823133845208</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.95749316250082206</v>
+        <v>0.95297651215265211</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.95103608755006952</v>
+        <v>0.94651937564088628</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.94591010688623411</v>
+        <v>0.9341701238146749</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.9417339687191133</v>
+        <v>0.93148854236292278</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.92561855263673232</v>
+        <v>0.9209668011581893</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.91034952692887428</v>
+        <v>0.91382381906539389</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.90377962464968231</v>
+        <v>0.91097013822392725</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.89612624678345176</v>
+        <v>0.91388986473403122</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.8944469508635009</v>
+        <v>0.91598789474738362</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.89392694536606254</v>
+        <v>0.92060925825521311</v>
       </c>
     </row>
   </sheetData>
